--- a/data/georgia_census/kakheti/gurjaani/age_dependency.xlsx
+++ b/data/georgia_census/kakheti/gurjaani/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52197F4A-DDC8-4918-B537-276780023B24}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98EECB17-066D-49C8-AEC9-F959DA1917C3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CE88F8F-8092-4E07-8D7E-BF6D365F6DD9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AD4DCDA-DE5D-4545-96F3-CB724BD923C5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F800258-468A-4095-A31A-04C8E54800D0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A4534D5-2736-42AC-A0B9-CB9417C42043}"/>
 </file>